--- a/biology/Zoologie/Euselasia_cafusa/Euselasia_cafusa.xlsx
+++ b/biology/Zoologie/Euselasia_cafusa/Euselasia_cafusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia cafusa est une espèce d'insectes lépidoptères appartenant à la famille  des Riodinidae et au genre Euselasia.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euselasia cafusa a été décrit par Henry Walter Bates en 1868 sous le nom d' Eurygona cafusa[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia cafusa a été décrit par Henry Walter Bates en 1868 sous le nom d' Eurygona cafusa
 Euselasia cafusa forme eunaeola Stichel, 1925; au Brésil
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia cafusa est de couleur noire.
 L'autre face est de couleur ocre beige. Les ailes antérieures sont séparées en trois, la partie basale est séparée par une ligne rouge vif finement bordée de noir puis la partie distale par une ligne foncée. Aux postérieures la ligne rouge se continue, l'aile est finement bordée de rouge doublé de blanc puis d'une ornementation submarginale centrée par un très gros ocelle noir.
@@ -575,7 +591,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle n'est pas connue.
 </t>
@@ -606,12 +624,49 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Euselasia cafusa est présent en Guyane, Guyana, au Surinam, à Trinité-et-Tobago, en  Équateur et au Brésil[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia cafusa est présent en Guyane, Guyana, au Surinam, à Trinité-et-Tobago, en  Équateur et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euselasia_cafusa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_cafusa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
